--- a/pred_ohlcv/54_21/2020-01-16 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3053431.706731155</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4002509.188531155</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4248638.015531154</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4268638.015531154</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4295623.443831154</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5914637.710431155</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5934637.710431155</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5964637.710431155</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5963387.710431155</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6083347.209331155</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-6368108.297931155</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6355482.035231155</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-7519665.9631676</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7512906.8715676</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7509156.8715676</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-8163773.4749907</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9138533.8188907</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10224694.8956907</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10166071.3321907</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3053431.706731155</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4002509.188531155</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4248638.015531154</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4268638.015531154</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4295623.443831154</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4855799.943431154</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5914637.710431155</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5934637.710431155</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5964637.710431155</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5963387.710431155</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6083347.209331155</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-6368108.297931155</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6355482.035231155</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6383795.555631155</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7218661.3053676</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7394502.2025676</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8180303.7839676</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-8172164.800916753</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-7668315.321941022</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-8138840.3301907</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-8163630.3851907</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-8163773.4749907</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-8213773.4749907</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-8213228.125490701</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-8623877.9721907</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-8623747.9721907</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8730842.878690701</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-8657752.264790701</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8686912.009390701</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8868937.316190701</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-8755338.541990701</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-8753138.541990701</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-8766894.7397907</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8819861.6119907</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8819361.6119907</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9138533.8188907</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10224694.8956907</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10166071.3321907</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
